--- a/Documents/Component List - Dimitar.xlsx
+++ b/Documents/Component List - Dimitar.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,13 +175,25 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -304,10 +316,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -328,17 +341,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -522,7 +538,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -951,7 +967,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -965,14 +981,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -1004,7 +1020,7 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="13">
@@ -1064,7 +1080,7 @@
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="13">
@@ -1141,10 +1157,10 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1161,10 +1177,10 @@
       <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="16" t="s">
         <v>20</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1181,10 +1197,10 @@
       <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1201,10 +1217,10 @@
       <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1221,10 +1237,10 @@
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1241,10 +1257,10 @@
       <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="1">
@@ -1261,10 +1277,10 @@
       <c r="B16" s="1">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="1">
@@ -1281,10 +1297,10 @@
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -1301,10 +1317,10 @@
       <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -1321,10 +1337,10 @@
       <c r="B19" s="13">
         <v>5</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="16" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="13" t="s">

--- a/Documents/Component List - Dimitar.xlsx
+++ b/Documents/Component List - Dimitar.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -158,7 +158,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +182,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +200,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -316,18 +328,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -341,20 +348,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -538,7 +563,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
@@ -868,94 +893,94 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -967,7 +992,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -981,430 +1006,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="35.4" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="20">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="20">
         <v>1206</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="17">
         <v>2</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="17">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="17">
         <v>1206</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="17">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="17">
         <v>5</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="17">
         <v>1206</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="13">
+      <c r="A6" s="20">
         <v>4</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="20">
         <v>10</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="20">
         <v>1206</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13">
+      <c r="A7" s="17">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="17">
         <v>10</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="17">
         <v>1206</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="17">
+        <v>6</v>
+      </c>
+      <c r="B8" s="17">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="17">
         <v>1206</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="17">
         <v>2</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="17">
         <v>1206</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="13">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="18">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="13">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="18">
         <v>5</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="13">
+      <c r="A12" s="17">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="13">
+      <c r="A13" s="17">
         <v>11</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="18">
         <v>4</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="13">
+      <c r="A14" s="20">
         <v>12</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="21">
         <v>3</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="13">
+      <c r="A15" s="17">
         <v>13</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="18">
         <v>2</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="18">
         <v>1206</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="13">
+      <c r="A16" s="20">
         <v>14</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="21">
         <v>5</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="21">
         <v>1206</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" s="21" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="13">
+      <c r="A17" s="17">
         <v>15</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="18">
         <v>10</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="A18" s="20">
         <v>16</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="21">
         <v>5</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="A19" s="20">
         <v>17</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="20">
         <v>5</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="21" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="3"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="1"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="3"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="1"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="3"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="1"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="3"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="1"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="3"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="1"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="3"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="1"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="3"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="1"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="3"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="1"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
